--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2014.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2014.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161421754703661</v>
+        <v>1.109361886978149</v>
       </c>
       <c r="B1">
-        <v>2.334041169473096</v>
+        <v>2.828197717666626</v>
       </c>
       <c r="C1">
-        <v>7.646498514046696</v>
+        <v>6.910793781280518</v>
       </c>
       <c r="D1">
-        <v>2.404167098106136</v>
+        <v>2.02814245223999</v>
       </c>
       <c r="E1">
-        <v>1.22355737076419</v>
+        <v>1.082121253013611</v>
       </c>
     </row>
   </sheetData>
